--- a/output/fit_clients/fit_round_17.xlsx
+++ b/output/fit_clients/fit_round_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7157831787.751264</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004418555124085287</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.95549005387901</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9054510343397102</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.95549005387901</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6172154125.99755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005400658559173463</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.611016283304794</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.217563236246943</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.611016283304794</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>3987034956.705964</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003563249258044781</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.594716601982794</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9771509221289537</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.594716601982794</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3438889290.717705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004910203292900821</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.453070466984482</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7714046210364337</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.453070466984482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5824755380.796469</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002244002479885922</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.184319000082731</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.7947732444637053</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.184319000082731</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7380699280.668456</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001135869060058658</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.606531405938046</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9718291335498717</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.606531405938046</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7360467384.455064</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003407959376068573</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9690293071370445</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502939</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.545263503516497</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.197605518804094</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.545263503516497</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6848693731.582175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005512344795300619</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.76481478695865</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9539008627826729</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.76481478695865</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3916013994.894873</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00488072544736047</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.608450950970585</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9929451666738577</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.608450950970585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3843901272.185966</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00132560678030038</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7631528841036791</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.277442843776056</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8248573158857421</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.277442843776056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6709304789.398839</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001866590788056069</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.1556919317371742</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.132303639002381</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.2190879702997386</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.132303639002381</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6035846190.139802</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004674021818181212</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.00839241344048</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.028136437239116</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.00839241344048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8765206770.538698</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002752577495352789</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.030904205026959</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.862454826401594</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-4.030904205026959</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5000407143.902839</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003483292951752924</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.300638655192644</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9559969185737967</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.300638655192644</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6016205938.340365</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.00542351621231978</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.70567838936426</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9142441951464132</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.70567838936426</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6453560416.277038</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003348879389305468</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.556777401000585</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9675506276032062</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.556777401000585</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>7285496718.577221</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008141815612821491</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.848954283954471</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9859813460834586</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.848954283954471</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3996033722.003853</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002174151598789866</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.046145961863317</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8978088250793844</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.046145961863317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6123867276.067923</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.00101038538305121</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.574737132721855</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8512133675122161</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-5.574737132721855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5674357992.401055</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004505400465057982</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.205867126289718</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.852779591630529</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-4.205867126289718</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5761486208.620436</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004634404860537694</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8.000564921940004</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9024987012992109</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-8.000564921940004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6866840077.952719</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001634275126030057</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9409317957434139</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.97533996294605</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.128363401788537</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.97533996294605</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6855534541.724757</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00361853211611492</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.2384618370973988</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8.00372878578125</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.6162525935406479</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-8.00372878578125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7282074343.612269</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003809955289703933</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.100375917716455</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8978088250793844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.100375917716455</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4133616845.980176</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001242334217902987</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942154</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.468317101010889</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8580621622398225</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-4.468317101010889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7324730783.131055</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003797530979004721</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.660728196458606</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9498545315396468</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.660728196458606</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8953321767.42247</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003666434123523849</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.359118320613504</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8120171550673168</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.359118320613504</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6367085691.010016</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001101403471191324</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.741902433724075</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9820672023305853</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.741902433724075</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6567160766.87254</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003025745559530463</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090875</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.506821870542377</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9085540097086925</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-4.506821870542377</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5370377837.605559</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002664377938896898</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.1991404331356063</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.706165214968285</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.2612163059364476</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.706165214968285</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4970623765.712131</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001068191360342718</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.1027932122991977</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.327123867858783</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-0.2477845717576238</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.327123867858783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6637139673.379025</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002726388656561603</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.134119456927524</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8052362246028418</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.134119456927524</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6113038038.78824</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005650001000504241</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8737182620079103</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6547154169.201454</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002194114662456054</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.89068941307508</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9985249913484174</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-7.89068941307508</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6844649235.244294</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.00305870370875737</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.629477526773937</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9631775524372547</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.629477526773937</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4702707330.094233</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005456441849091617</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.810026044666797</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.033526287960362</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-4.810026044666797</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3846624943.04116</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004724470502060285</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.958216974290776</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.888518649612124</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.958216974290776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5725338391.151911</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003038695164030455</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.832044804359829</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8963212881106754</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-5.832044804359829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4852778606.103593</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004010127460426088</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.1921171952920006</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.827857636098621</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.4867895801724268</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-5.827857636098621</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6820370292.732594</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001063662106552478</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9532720430301086</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.657663306523333</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.172044613993078</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.657663306523333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5137466394.981293</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003904287056731886</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.535331467637975</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.020759142475488</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-5.535331467637975</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5728296529.403015</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003393396086850675</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.757194687760604</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9621757413145419</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-5.757194687760604</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5606407413.46133</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001864721211967717</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.160194093689761</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9351557523098213</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.160194093689761</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4981675743.104389</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001580713442817106</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
         <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.920358678937401</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9950321240751191</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.920358678937401</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10619754944.25378</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.0054965573530852</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8028188678041501</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.065160997526865</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9440478706733021</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-4.065160997526865</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6523389679.170759</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002705983097521553</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.554704828179996</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9414713643705482</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-5.554704828179996</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8105081463.007958</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003049926433651771</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.944792969561692</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9954038991618703</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-7.944792969561692</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5889101456.820613</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005108011683355193</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8936671965707281</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.464432899556152</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.02493094361195</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.464432899556152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7419937901.766633</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003718989210041511</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.710434080807003</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.020759142475488</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.710434080807003</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4757172059.443191</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005289392608522455</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.107808126065343</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9483718809628193</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-4.107808126065343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7539735065.120737</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002064463941822096</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.569303822104041</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8628837245588861</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.569303822104041</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6713589160.682728</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003463683083024569</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.65172634068229</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9322194160832831</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.65172634068229</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5924194868.294764</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003860298383081651</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.552892303356483</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8073501141437305</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.552892303356483</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8467299669.749301</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004345268280782502</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.627762820288421</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9288755588570277</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-4.627762820288421</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4758610028.817486</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00226112162017218</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.673256910561622</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9513348714158689</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.673256910561622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5354803699.925199</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002922908233144764</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.594167335913074</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8409690284572929</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.594167335913074</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5850407125.744516</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002011028449629036</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.950612627797113</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7077969741533378</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.950612627797113</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5932356422.517334</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003861659980377211</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.002364558654126</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8720227194662281</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.002364558654126</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3798848569.630351</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004296506640896431</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.514750566478242</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8519968394697889</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.514750566478242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6615778148.78848</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004529927636962839</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.711899482273203</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9505567045271018</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.711899482273203</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6240254536.751637</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00403430242604394</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8823953438397941</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5.217950692172156</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.081088009584783</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-5.217950692172156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8352805761.671688</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004355628125856057</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.002249428955023</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.4850712500726659</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-4.002249428955023</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3673549505.450169</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005267210963804774</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5.597005872598661</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.927038820355814</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-5.597005872598661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6838453161.17052</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004936520491797683</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.087266112074985</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.021412573048871</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.087266112074985</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4649301726.778523</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003880224938077675</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.669169617506107</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8511278549172772</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.669169617506107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5383113977.260465</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00429466212575623</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.984847025493916</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9418642813351367</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.984847025493916</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5467361261.518794</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002514158862399958</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.906794398586476</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.723837453989911</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.906794398586476</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6195358155.427753</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009872185949162781</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.71042225689451</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9971147134918386</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.71042225689451</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6484730629.724321</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003804691826577036</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8.713460975799419</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.949541577908304</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-8.713460975799419</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3365292588.76442</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002749825851586338</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.84987346612269</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.868530920002262</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.84987346612269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7382299113.888849</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002335939019830826</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.893676475361637</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.117164269718502</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-7.893676475361637</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6926945459.872225</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001012104009769697</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.878147819487915</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.012962943937553</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-7.878147819487915</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5564310441.793048</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004568681499360464</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.832922114569578</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.949541577908304</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-7.832922114569578</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6992588742.998062</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003894602065065512</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.415423717606193</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.7820871978483194</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.415423717606193</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6534155757.5739</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002896974402552361</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.725902436103359</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9498545315396468</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-4.725902436103359</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7022468185.86934</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005492849680159667</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.677158134328669</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.002302255641022</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.677158134328669</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7222341468.477852</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.005058113984078479</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9594896799159547</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.673337754608356</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.192286805565706</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.673337754608356</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8343308511.154436</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002516484271111482</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.001802222855145902</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.963192760385873</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-0.481912190917476</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.963192760385873</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5433514996.574973</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003237214140613642</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.337260981232725</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9646374469221412</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.337260981232725</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5071301490.182752</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004691627249308352</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.822943203628401</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.015008743662389</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.822943203628401</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6323551579.849209</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004618185761099255</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.716657584464484</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9502439821496445</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.716657584464484</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10831856362.60888</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002281490993461811</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>5</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8712135504982326</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.562986921282671</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.008424369788382</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.562986921282671</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7032909469.575311</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005105526400619278</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.013292232502469</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9505567045271018</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.013292232502469</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5825420584.7619</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003409472602696987</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.577275833319845</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9443789341600286</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.577275833319845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7872609551.982718</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002454783906169187</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.303665619130459</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9774550360642043</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.303665619130459</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3781866603.262262</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001666062096135606</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.317395735006255</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9276798048175458</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.317395735006255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8555657334.76329</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003981122737992035</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.8457879659882082</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.973431530946088</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.9923689227996995</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.973431530946088</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7891807324.130605</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005334958602237294</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.145563505675533</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9228747203795179</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.145563505675533</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5884932989.855769</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003432713809530967</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.566122262036803</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9520359525810304</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.566122262036803</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>8140699211.295433</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003876736116028551</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.764042781556617</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8709160596294246</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.764042781556617</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4369952085.365518</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003293975823035024</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.113642779212782</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.017998238690226</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.113642779212782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6710326706.219783</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001762332168001151</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.650151391894924</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8787093378936338</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.650151391894924</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6505446590.7768</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001171317725330533</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>7.94951763800174</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.06097393930382</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-7.94951763800174</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5358367855.156882</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002169037975901132</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.928284848068665</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.974043885796302</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.123413828626526</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.974043885796302</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8284999062.892352</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003117572579008214</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>4.09087794686902</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9329348622265542</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-4.09087794686902</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6727455416.255855</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004535739556610232</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.77867363003007</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9326162309588383</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-5.77867363003007</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7615430251.622786</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003534026468194901</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.85673048789971</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8368187835000414</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.85673048789971</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2587905790.418596</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005714442166849587</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.088668160089591</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8966528171093819</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-4.088668160089591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3841508967.392314</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002461522782384076</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.632728283569712</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.971845500501708</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7948648197843242</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.971845500501708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7012898597.454898</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001376159079123565</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.9545153562777327</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.324726486847732</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.133839885051772</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.324726486847732</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_17.xlsx
+++ b/output/fit_clients/fit_round_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7157831787.751264</v>
+        <v>1584505494.941829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004418555124085287</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+        <v>0.1125325386363827</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04488872558334436</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>792252686.9980624</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6172154125.99755</v>
+        <v>2068905308.492423</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005400658559173463</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1490973214519579</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03412858647257267</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1034452704.693571</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3987034956.705964</v>
+        <v>5063282358.396041</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003563249258044781</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+        <v>0.1400921412141125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02955497554033364</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2531641268.452885</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3438889290.717705</v>
+        <v>2982586031.746317</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004910203292900821</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08846786155606384</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04964531379551529</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1491293086.491411</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5824755380.796469</v>
+        <v>2765637746.253222</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002244002479885922</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+        <v>0.1339793553830294</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04392556106814578</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1382818819.605372</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>494</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2107147191.985122</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07702118371729619</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03173365218769205</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>539</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7380699280.668456</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.001135869060058658</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+      <c r="J7" t="n">
+        <v>1053573646.572967</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7360467384.455064</v>
+        <v>3347671449.75387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003407959376068573</v>
-      </c>
-      <c r="G8" t="b">
+        <v>0.1761021113880225</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02129376404023917</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>4</v>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1673835817.636999</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6848693731.582175</v>
+        <v>1621675754.617494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005512344795300619</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>0.1484539855599717</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02649796242330615</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>810837956.1276976</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3916013994.894873</v>
+        <v>4664081803.197786</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00488072544736047</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1901054916679293</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04126791865223769</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2332040974.620671</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3843901272.185966</v>
+        <v>3027759170.721293</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00132560678030038</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1917564027248665</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03459094614514377</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1513879529.886624</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6709304789.398839</v>
+        <v>2473502211.045825</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001866590788056069</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
+        <v>0.1904957855440329</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03606339798632204</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1236751075.027087</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6035846190.139802</v>
+        <v>4261068175.056223</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004674021818181212</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.06680508209255707</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02339739807705181</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2130534128.905878</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8765206770.538698</v>
+        <v>3063603624.824388</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002752577495352789</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
+        <v>0.1279378807337098</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02864073411555196</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1531801841.966204</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5000407143.902839</v>
+        <v>1334383944.439703</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003483292951752924</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
+        <v>0.09857459981952976</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04386344708285503</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>667192019.8870574</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6016205938.340365</v>
+        <v>2358353065.086079</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00542351621231978</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
+        <v>0.1072269563420499</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04885862984091887</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1179176575.73089</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6453560416.277038</v>
+        <v>4203607562.501229</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003348879389305468</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
+        <v>0.1064324060733863</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04178773532861094</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2101803805.487574</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>7285496718.577221</v>
+        <v>3867589781.730678</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008141815612821491</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.159241856208114</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02327164952055017</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>4</v>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1933794857.964109</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3996033722.003853</v>
+        <v>1344099565.215484</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002174151598789866</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1781338359351217</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02562793115109594</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>672049895.268959</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6123867276.067923</v>
+        <v>1745226763.523036</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00101038538305121</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1512952577035176</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02006799474939516</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>872613434.9345932</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5674357992.401055</v>
+        <v>2421119317.764306</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004505400465057982</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
+        <v>0.09794068580238195</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04605905733369112</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1210559654.270983</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3578946623.713934</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.09588531475337275</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05237814541559336</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5761486208.620436</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.004634404860537694</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1789473338.415981</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6866840077.952719</v>
+        <v>1369705792.375806</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001634275126030057</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
+        <v>0.1247930532518806</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03398780536950097</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>684852903.7893857</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6855534541.724757</v>
+        <v>2945391741.193462</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00361853211611492</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
+        <v>0.1257767556154467</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03462483430212527</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1472695909.24271</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7282074343.612269</v>
+        <v>1097809399.356297</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003809955289703933</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
+        <v>0.1150744331845674</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02210019956198925</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>548904740.8956807</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4133616845.980176</v>
+        <v>1160528853.423317</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001242334217902987</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1137919371751876</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02685875008455439</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>580264437.7384857</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7324730783.131055</v>
+        <v>2953632690.144696</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003797530979004721</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
+        <v>0.143744279835367</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02684518084135905</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1476816406.910062</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3037410088.333599</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1304542167110672</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03289550485832785</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>6</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8953321767.42247</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.003666434123523849</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
+      <c r="J28" t="n">
+        <v>1518705058.363131</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6367085691.010016</v>
+        <v>4944599192.763321</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001101403471191324</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
+        <v>0.125221971302734</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0295285468473122</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2472299547.354925</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6567160766.87254</v>
+        <v>2253643073.929432</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003025745559530463</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
+        <v>0.1292387105688848</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02695982502811032</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1126821603.001917</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5370377837.605559</v>
+        <v>1127564934.094352</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002664377938896898</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
+        <v>0.08968860825936724</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04285706675396942</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>563782435.2750748</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4970623765.712131</v>
+        <v>1643678933.283612</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001068191360342718</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09352590621352504</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02951639182762683</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>821839564.4758122</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>488</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2907943067.399272</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1421304102440511</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04673547590697557</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="n">
-        <v>470</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6637139673.379025</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.002726388656561603</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1453971536.859324</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6113038038.78824</v>
+        <v>1333672214.789076</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005650001000504241</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
+        <v>0.07479334348968682</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01737033221580534</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>666836090.2054683</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6547154169.201454</v>
+        <v>1202231714.410303</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002194114662456054</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
+        <v>0.08256903034947291</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03941134769360111</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>601115831.1372043</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2693795992.513711</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1694377507224549</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01974451327633067</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>3</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6844649235.244294</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.00305870370875737</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
+      <c r="J36" t="n">
+        <v>1346898002.392033</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4702707330.094233</v>
+        <v>2157941828.370261</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005456441849091617</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
+        <v>0.08677193647880041</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02727170267847541</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1078970962.919471</v>
       </c>
     </row>
     <row r="38">
@@ -1491,19 +1717,25 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3846624943.04116</v>
+        <v>1835330391.017853</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004724470502060285</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08041308911058449</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02672510269892317</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>917665197.0905699</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5725338391.151911</v>
+        <v>1467848180.736102</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003038695164030455</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1277899638187443</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03056569653824541</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>733924165.3678286</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4852778606.103593</v>
+        <v>1109185418.185994</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004010127460426088</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
+        <v>0.1037677739423232</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0505855006987986</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>554592772.8307343</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>506</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2758961379.603632</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1378154283688615</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03864156375285449</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="D41" t="n">
-        <v>540</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6820370292.732594</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.001063662106552478</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1379480689.454117</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5137466394.981293</v>
+        <v>3583229081.27982</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003904287056731886</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
+        <v>0.09509710665521436</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02892276672809824</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1791614540.910036</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5728296529.403015</v>
+        <v>2693150935.656925</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003393396086850675</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
+        <v>0.1710582726571111</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02069671052963591</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1346575496.791375</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5606407413.46133</v>
+        <v>1889118495.212885</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001864721211967717</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
+        <v>0.07194026024911192</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02371176674394405</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>944559331.5465953</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4981675743.104389</v>
+        <v>1586930800.288541</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001580713442817106</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1374990848241536</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04829768963076932</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>793465349.0656517</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10619754944.25378</v>
+        <v>4321564710.971498</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0054965573530852</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
+        <v>0.1372151141708364</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04265081751408172</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2160782343.16435</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6523389679.170759</v>
+        <v>4341927620.763448</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002705983097521553</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
+        <v>0.1892842130978135</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05956128168037859</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2170963828.606628</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8105081463.007958</v>
+        <v>4258448246.816793</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003049926433651771</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
+        <v>0.1010900179602457</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03584681956654172</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2129224142.461353</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5889101456.820613</v>
+        <v>1509185602.045806</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005108011683355193</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1256196560914926</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03829619542440985</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>754592831.2969385</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7419937901.766633</v>
+        <v>3884555946.03394</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003718989210041511</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
+        <v>0.1389608989137745</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03591115390463407</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1942277969.482336</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4757172059.443191</v>
+        <v>1334034149.068779</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005289392608522455</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1493671287199431</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05368938046308058</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>667017104.0555633</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7539735065.120737</v>
+        <v>3649591976.92672</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002064463941822096</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
+        <v>0.09976556904720188</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03786457450282269</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1824796065.253972</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6713589160.682728</v>
+        <v>3675535030.81529</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003463683083024569</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
+        <v>0.1714669811621824</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02521323889399491</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1837767500.919978</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5924194868.294764</v>
+        <v>4229792944.406198</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003860298383081651</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1273487895895335</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04204142222832783</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2114896553.98018</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8467299669.749301</v>
+        <v>4125912461.898839</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004345268280782502</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
+        <v>0.1551425741664811</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02819562008418527</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2062956211.140369</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4758610028.817486</v>
+        <v>1737331458.146644</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00226112162017218</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1388669254144558</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04048904351934035</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>868665735.9569942</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5354803699.925199</v>
+        <v>3496571958.839911</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002922908233144764</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
+        <v>0.1203823540077629</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02610902084904828</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1748286025.243158</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5850407125.744516</v>
+        <v>1655491698.608449</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002011028449629036</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1279101099523632</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03302879605179869</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>827745865.9706167</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5932356422.517334</v>
+        <v>4536585125.264487</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003861659980377211</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+        <v>0.0946202281465944</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04998897721325075</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2268292512.415744</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3798848569.630351</v>
+        <v>2452872188.555606</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004296506640896431</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1810419831083657</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02097284636670582</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1226436107.014994</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6615778148.78848</v>
+        <v>3397921988.560277</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004529927636962839</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1131674277940395</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02856358718272206</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>3</v>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1698960936.763673</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6240254536.751637</v>
+        <v>1698406217.897757</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00403430242604394</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1458897528561715</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0464656335161941</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>849203121.4953102</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8352805761.671688</v>
+        <v>4604923998.319181</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004355628125856057</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
+        <v>0.1062263993366148</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03172107126751383</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2302462034.258745</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3673549505.450169</v>
+        <v>4853173774.191123</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005267210963804774</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1632742108044861</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02183653880848377</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2426586982.649517</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6838453161.17052</v>
+        <v>3675968812.047517</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004936520491797683</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
+        <v>0.1246780159667138</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02753695805932254</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1837984443.700688</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4649301726.778523</v>
+        <v>3683699682.514993</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003880224938077675</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
+        <v>0.1611578833132362</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03564300243053167</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1841849797.593226</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5383113977.260465</v>
+        <v>3389530013.713734</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00429466212575623</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
+        <v>0.1008376755654243</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04492304940419373</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1694764991.837685</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5467361261.518794</v>
+        <v>4839263833.548984</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002514158862399958</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>4</v>
+        <v>0.1231626631544784</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03672225370134421</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2419631963.116117</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6195358155.427753</v>
+        <v>2470405810.782197</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009872185949162781</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.1504590419134342</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05009752183392896</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1235202970.828522</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6484730629.724321</v>
+        <v>2732690662.64665</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003804691826577036</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
+        <v>0.09966467094817036</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04258130227516359</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1366345290.683491</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3365292588.76442</v>
+        <v>4549820196.267546</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002749825851586338</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.156596420623235</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02295226360640227</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2274910169.925756</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7382299113.888849</v>
+        <v>2057261528.790413</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002335939019830826</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
+        <v>0.09762441163020075</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04714205018622176</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1028630701.189739</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6926945459.872225</v>
+        <v>2611609199.040354</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001012104009769697</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4</v>
+        <v>0.07915013486491194</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0484671425263993</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1305804630.755972</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5564310441.793048</v>
+        <v>3596230896.376997</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004568681499360464</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
+        <v>0.1517640215502728</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03126510224871683</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1798115461.769817</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6992588742.998062</v>
+        <v>1868273574.045941</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003894602065065512</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
+        <v>0.124485018745176</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02643972557758504</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>934136763.2589943</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>412</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4710177876.29439</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1247137769093275</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02585963290575165</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="D76" t="n">
-        <v>459</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6534155757.5739</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.002896974402552361</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2355088952.366659</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7022468185.86934</v>
+        <v>1730205038.891658</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005492849680159667</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>6</v>
+        <v>0.1423407352014808</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02705826394305801</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>865102540.8302201</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4401228403.786283</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1199107181474684</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05475769100305738</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>6</v>
       </c>
-      <c r="D78" t="n">
-        <v>454</v>
-      </c>
-      <c r="E78" t="n">
-        <v>7222341468.477852</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.005058113984078479</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
+      <c r="J78" t="n">
+        <v>2200614138.616091</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8343308511.154436</v>
+        <v>1167617156.3829</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002516484271111482</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>4</v>
+        <v>0.172418291604532</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0290660221755541</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>583808554.0212733</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>403</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5234587677.050384</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.08775287299734752</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03597068142690934</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>3</v>
       </c>
-      <c r="D80" t="n">
-        <v>573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5433514996.574973</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.003237214140613642</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>5</v>
+      <c r="J80" t="n">
+        <v>2617293899.055335</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5071301490.182752</v>
+        <v>5109355898.555507</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004691627249308352</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
+        <v>0.09540949351244095</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02134309489432581</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2554677953.434317</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4371500465.118134</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1683705852640524</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02358118490006698</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>6</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6323551579.849209</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.004618185761099255</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
+      <c r="J82" t="n">
+        <v>2185750251.30168</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10831856362.60888</v>
+        <v>2378523158.114648</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002281490993461811</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>5</v>
+        <v>0.105939515649748</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04093579184711685</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1189261611.299395</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7032909469.575311</v>
+        <v>2027320863.022183</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005105526400619278</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>3</v>
+        <v>0.09255497515957796</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05012426252420767</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1013660432.228551</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5825420584.7619</v>
+        <v>2386293439.037893</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003409472602696987</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.171905563664922</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04301870149108727</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1193146711.660864</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7872609551.982718</v>
+        <v>1958358454.948665</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002454783906169187</v>
-      </c>
-      <c r="G86" t="b">
+        <v>0.170470002716633</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02004657592648093</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>5</v>
+      <c r="J86" t="n">
+        <v>979179249.0444609</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3781866603.262262</v>
+        <v>1482761382.092758</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001666062096135606</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1878160961835756</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02738432408577906</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>741380818.8283052</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8555657334.76329</v>
+        <v>2811600641.952217</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003981122737992035</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>4</v>
+        <v>0.1384813490122136</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03817608486247256</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1405800332.51215</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7891807324.130605</v>
+        <v>2394393865.230463</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005334958602237294</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4</v>
+        <v>0.1405221594792887</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02810377805948222</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1197197014.856773</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5884932989.855769</v>
+        <v>1780758100.313154</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003432713809530967</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.08362505023717601</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03910733744890156</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>890379079.966257</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>8140699211.295433</v>
+        <v>1897797623.966248</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003876736116028551</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>5</v>
+        <v>0.1834463879125952</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04037227566790222</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>948898797.5244207</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>515</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2780750521.275903</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.1055677807938657</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0461728106273874</v>
+      </c>
+      <c r="H92" t="b">
         <v>1</v>
       </c>
-      <c r="D92" t="n">
-        <v>534</v>
-      </c>
-      <c r="E92" t="n">
-        <v>4369952085.365518</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.003293975823035024</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+      <c r="I92" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1390375265.418768</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6710326706.219783</v>
+        <v>4340372910.457226</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001762332168001151</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>6</v>
+        <v>0.09106305218503101</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04159289173013274</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2170186433.546895</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6505446590.7768</v>
+        <v>2020396409.477158</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001171317725330533</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>6</v>
+        <v>0.1093681716365799</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03781409003588678</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1010198205.442045</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5358367855.156882</v>
+        <v>2073656723.459661</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002169037975901132</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.09250370653947822</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05150176719633051</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1036828428.476684</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8284999062.892352</v>
+        <v>1926884901.333591</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003117572579008214</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>5</v>
+        <v>0.103370916126779</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03292810511283317</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>963442445.1277369</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6727455416.255855</v>
+        <v>4788687419.451266</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004535739556610232</v>
-      </c>
-      <c r="G97" t="b">
+        <v>0.1592524359282838</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02514087974730631</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="n">
-        <v>4</v>
+      <c r="I97" t="n">
+        <v>5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2394343829.179876</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="n">
+        <v>453</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3702226324.939692</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.09599474510612076</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02305914356147258</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
-        <v>616</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7615430251.622786</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.003534026468194901</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>6</v>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1851113194.545797</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2587905790.418596</v>
+        <v>2772042436.754261</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005714442166849587</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1466004263700794</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0241717817415454</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1386021187.476411</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3841508967.392314</v>
+        <v>3927360478.910245</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002461522782384076</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1294736821049629</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01957627188379345</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1963680304.039568</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7012898597.454898</v>
+        <v>3125833932.578981</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001376159079123565</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>6</v>
+        <v>0.1955522916432804</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05099588303511951</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1562917071.677887</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_17.xlsx
+++ b/output/fit_clients/fit_round_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1584505494.941829</v>
+        <v>2295553719.770117</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1125325386363827</v>
+        <v>0.08444004136294325</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04488872558334436</v>
+        <v>0.04271952647384643</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>792252686.9980624</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2068905308.492423</v>
+        <v>1867542513.942867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1490973214519579</v>
+        <v>0.1632389009508028</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03412858647257267</v>
+        <v>0.04717559281746817</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1034452704.693571</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5063282358.396041</v>
+        <v>4488035955.719072</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1400921412141125</v>
+        <v>0.1040530045463098</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02955497554033364</v>
+        <v>0.03309925575556942</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2531641268.452885</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2982586031.746317</v>
+        <v>3919050661.133036</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08846786155606384</v>
+        <v>0.108095063881221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04964531379551529</v>
+        <v>0.04426466467464756</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1491293086.491411</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2765637746.253222</v>
+        <v>2167564246.419798</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1339793553830294</v>
+        <v>0.0994416133356557</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04392556106814578</v>
+        <v>0.04233913253255902</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1382818819.605372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2107147191.985122</v>
+        <v>2367353769.779916</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07702118371729619</v>
+        <v>0.08532936450485314</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03173365218769205</v>
+        <v>0.04486449598919746</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1053573646.572967</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3347671449.75387</v>
+        <v>3861026134.510366</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1761021113880225</v>
+        <v>0.1822634187252867</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02129376404023917</v>
+        <v>0.02098758117254891</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1673835817.636999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1621675754.617494</v>
+        <v>1641121888.115227</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1484539855599717</v>
+        <v>0.1625040010354054</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02649796242330615</v>
+        <v>0.02558796093152852</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>810837956.1276976</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4664081803.197786</v>
+        <v>5431303811.630257</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1901054916679293</v>
+        <v>0.2031546053265678</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04126791865223769</v>
+        <v>0.03358784686318336</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2332040974.620671</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3027759170.721293</v>
+        <v>2701926886.223547</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1917564027248665</v>
+        <v>0.1349614187809225</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03459094614514377</v>
+        <v>0.04003252062919933</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1513879529.886624</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2473502211.045825</v>
+        <v>2298945922.171121</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1904957855440329</v>
+        <v>0.1939470100725923</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03606339798632204</v>
+        <v>0.05019389492769734</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1236751075.027087</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4261068175.056223</v>
+        <v>4542366747.845223</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06680508209255707</v>
+        <v>0.08710510570895373</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02339739807705181</v>
+        <v>0.02704259649809568</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2130534128.905878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3063603624.824388</v>
+        <v>2981996529.49084</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1279378807337098</v>
+        <v>0.1148521516868521</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02864073411555196</v>
+        <v>0.03970580941897187</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1531801841.966204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1334383944.439703</v>
+        <v>1390518611.42619</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09857459981952976</v>
+        <v>0.07145065713215813</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04386344708285503</v>
+        <v>0.04788397027010648</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>667192019.8870574</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2358353065.086079</v>
+        <v>2444184286.405962</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1072269563420499</v>
+        <v>0.1000589891244918</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04885862984091887</v>
+        <v>0.04564575139087849</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1179176575.73089</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4203607562.501229</v>
+        <v>3714105314.497596</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1064324060733863</v>
+        <v>0.1750378258661085</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04178773532861094</v>
+        <v>0.04643382640027149</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2101803805.487574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3867589781.730678</v>
+        <v>2695362261.025253</v>
       </c>
       <c r="F18" t="n">
-        <v>0.159241856208114</v>
+        <v>0.1423028917574099</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02327164952055017</v>
+        <v>0.02384170998100296</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1933794857.964109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1344099565.215484</v>
+        <v>961598217.6195248</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1781338359351217</v>
+        <v>0.1890275125532981</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02562793115109594</v>
+        <v>0.02571422403434796</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>672049895.268959</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1745226763.523036</v>
+        <v>2415539932.565025</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1512952577035176</v>
+        <v>0.1201536629263258</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02006799474939516</v>
+        <v>0.02137411636027685</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>872613434.9345932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2421119317.764306</v>
+        <v>1942020341.323041</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09794068580238195</v>
+        <v>0.06357429013253404</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04605905733369112</v>
+        <v>0.02898067338290641</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1210559654.270983</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3578946623.713934</v>
+        <v>2931138650.072161</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09588531475337275</v>
+        <v>0.1267049333831347</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05237814541559336</v>
+        <v>0.03691943754137178</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1789473338.415981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1369705792.375806</v>
+        <v>1453038960.253314</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1247930532518806</v>
+        <v>0.1494529598625884</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03398780536950097</v>
+        <v>0.0346912418306931</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>684852903.7893857</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2945391741.193462</v>
+        <v>3095968683.731053</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1257767556154467</v>
+        <v>0.09434241848276614</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03462483430212527</v>
+        <v>0.03324039729521393</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1472695909.24271</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1097809399.356297</v>
+        <v>1170785481.679281</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1150744331845674</v>
+        <v>0.08918374342958643</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02210019956198925</v>
+        <v>0.01870697618967004</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>548904740.8956807</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1160528853.423317</v>
+        <v>1432905797.830647</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1137919371751876</v>
+        <v>0.09344700641745246</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02685875008455439</v>
+        <v>0.02790977894122736</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>580264437.7384857</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2953632690.144696</v>
+        <v>4139980576.691404</v>
       </c>
       <c r="F27" t="n">
-        <v>0.143744279835367</v>
+        <v>0.1317270180749215</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02684518084135905</v>
+        <v>0.02342808385444244</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1476816406.910062</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3037410088.333599</v>
+        <v>3802630838.884518</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1304542167110672</v>
+        <v>0.1248817308880409</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03289550485832785</v>
+        <v>0.04504371652550559</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1518705058.363131</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4944599192.763321</v>
+        <v>5666528420.453969</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125221971302734</v>
+        <v>0.1175137204343505</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0295285468473122</v>
+        <v>0.0398865480498919</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2472299547.354925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2253643073.929432</v>
+        <v>2306462073.065423</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1292387105688848</v>
+        <v>0.0885541694474988</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02695982502811032</v>
+        <v>0.03160656089224102</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1126821603.001917</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1127564934.094352</v>
+        <v>951339114.3182218</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08968860825936724</v>
+        <v>0.09772130976099996</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04285706675396942</v>
+        <v>0.03491040115697754</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>563782435.2750748</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1643678933.283612</v>
+        <v>1415255255.442753</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09352590621352504</v>
+        <v>0.07864796992957875</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02951639182762683</v>
+        <v>0.02826467927933877</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>821839564.4758122</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2907943067.399272</v>
+        <v>2322572631.996864</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1421304102440511</v>
+        <v>0.1314687481285432</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04673547590697557</v>
+        <v>0.05721902716227569</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1453971536.859324</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1333672214.789076</v>
+        <v>1034150665.496715</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07479334348968682</v>
+        <v>0.1152757282115617</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01737033221580534</v>
+        <v>0.02146323071278547</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>666836090.2054683</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1202231714.410303</v>
+        <v>1225139856.213263</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08256903034947291</v>
+        <v>0.1006458131944335</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03941134769360111</v>
+        <v>0.02896733588741112</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>601115831.1372043</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2693795992.513711</v>
+        <v>2360340674.132663</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1694377507224549</v>
+        <v>0.1752832779167725</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01974451327633067</v>
+        <v>0.02720417109773696</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1346898002.392033</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2157941828.370261</v>
+        <v>2014807635.852069</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08677193647880041</v>
+        <v>0.08919377258775979</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02727170267847541</v>
+        <v>0.03965564690043723</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1078970962.919471</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1835330391.017853</v>
+        <v>2079299459.816032</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08041308911058449</v>
+        <v>0.1188612358997485</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02672510269892317</v>
+        <v>0.0271789886362784</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>917665197.0905699</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1467848180.736102</v>
+        <v>2003820134.660694</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1277899638187443</v>
+        <v>0.1657798086128235</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03056569653824541</v>
+        <v>0.03171275135224393</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>733924165.3678286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1109185418.185994</v>
+        <v>1456971107.029791</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1037677739423232</v>
+        <v>0.1550917392633349</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0505855006987986</v>
+        <v>0.0530571418063672</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>554592772.8307343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2758961379.603632</v>
+        <v>2904467904.018942</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1378154283688615</v>
+        <v>0.1517207724812315</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03864156375285449</v>
+        <v>0.04452122874739838</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1379480689.454117</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3583229081.27982</v>
+        <v>3164883695.625287</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09509710665521436</v>
+        <v>0.1130512145461606</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02892276672809824</v>
+        <v>0.04304460149823613</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1791614540.910036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2693150935.656925</v>
+        <v>2804142671.445583</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1710582726571111</v>
+        <v>0.1415132728102639</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02069671052963591</v>
+        <v>0.01821611914005569</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1346575496.791375</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1889118495.212885</v>
+        <v>2257876317.846439</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07194026024911192</v>
+        <v>0.0889941415723393</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02371176674394405</v>
+        <v>0.02587626866940631</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>944559331.5465953</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1586930800.288541</v>
+        <v>2110985115.622014</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1374990848241536</v>
+        <v>0.1951871473007369</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04829768963076932</v>
+        <v>0.04067344930504947</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>793465349.0656517</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4321564710.971498</v>
+        <v>4120458835.977724</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1372151141708364</v>
+        <v>0.1384668376196683</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04265081751408172</v>
+        <v>0.04983101647990093</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2160782343.16435</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4341927620.763448</v>
+        <v>4140090570.562339</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1892842130978135</v>
+        <v>0.1842049607966443</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05956128168037859</v>
+        <v>0.05669380308119793</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2170963828.606628</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4258448246.816793</v>
+        <v>4438633519.332713</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1010900179602457</v>
+        <v>0.1087537111531464</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03584681956654172</v>
+        <v>0.02706629403925627</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2129224142.461353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1509185602.045806</v>
+        <v>1197184138.918983</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1256196560914926</v>
+        <v>0.1770415307228124</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03829619542440985</v>
+        <v>0.03123735088548742</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>754592831.2969385</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3884555946.03394</v>
+        <v>3809693424.132962</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1389608989137745</v>
+        <v>0.1520853338266631</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03591115390463407</v>
+        <v>0.04226140204144826</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1942277969.482336</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1334034149.068779</v>
+        <v>1334855972.116302</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1493671287199431</v>
+        <v>0.1517405631060356</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05368938046308058</v>
+        <v>0.04318024782138924</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>667017104.0555633</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3649591976.92672</v>
+        <v>3924003528.704745</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09976556904720188</v>
+        <v>0.1244770843665077</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03786457450282269</v>
+        <v>0.0487445166496136</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1824796065.253972</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3675535030.81529</v>
+        <v>2575494843.189753</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1714669811621824</v>
+        <v>0.1652790444046614</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02521323889399491</v>
+        <v>0.02194722583718593</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1837767500.919978</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4229792944.406198</v>
+        <v>3051930922.034035</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1273487895895335</v>
+        <v>0.1289459080372339</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04204142222832783</v>
+        <v>0.04286661030893049</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2114896553.98018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4125912461.898839</v>
+        <v>4100210189.844202</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1551425741664811</v>
+        <v>0.1863567951402551</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02819562008418527</v>
+        <v>0.0267324706868893</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2062956211.140369</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1737331458.146644</v>
+        <v>1824247618.003118</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1388669254144558</v>
+        <v>0.1245220471314751</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04048904351934035</v>
+        <v>0.05054624744218251</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>868665735.9569942</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3496571958.839911</v>
+        <v>3220378055.047946</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1203823540077629</v>
+        <v>0.1492575618070898</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02610902084904828</v>
+        <v>0.01884329197495473</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1748286025.243158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1655491698.608449</v>
+        <v>1608725946.56254</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1279101099523632</v>
+        <v>0.1395420003412971</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03302879605179869</v>
+        <v>0.03054627175982962</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>827745865.9706167</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4536585125.264487</v>
+        <v>3998768762.041399</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0946202281465944</v>
+        <v>0.1274278393682775</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04998897721325075</v>
+        <v>0.03790651973045384</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2268292512.415744</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2452872188.555606</v>
+        <v>2781910453.091067</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1810419831083657</v>
+        <v>0.1743116065806493</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02097284636670582</v>
+        <v>0.02081961965408415</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1226436107.014994</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3397921988.560277</v>
+        <v>2931986215.632078</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1131674277940395</v>
+        <v>0.1144715836272012</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02856358718272206</v>
+        <v>0.02370880789275638</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1698960936.763673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1698406217.897757</v>
+        <v>1406388454.892285</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1458897528561715</v>
+        <v>0.1255450309739095</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0464656335161941</v>
+        <v>0.03169324437355035</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>849203121.4953102</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4604923998.319181</v>
+        <v>3877650835.729866</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1062263993366148</v>
+        <v>0.0982070782437231</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03172107126751383</v>
+        <v>0.03584692480006659</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2302462034.258745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4853173774.191123</v>
+        <v>5453283083.040013</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1632742108044861</v>
+        <v>0.1518257744944815</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02183653880848377</v>
+        <v>0.03045110771756163</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2426586982.649517</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3675968812.047517</v>
+        <v>3668511362.535956</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1246780159667138</v>
+        <v>0.162772130664343</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02753695805932254</v>
+        <v>0.03034304844951516</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1837984443.700688</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3683699682.514993</v>
+        <v>4276020143.416038</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1611578833132362</v>
+        <v>0.1537978075719032</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03564300243053167</v>
+        <v>0.04593751036606189</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1841849797.593226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3389530013.713734</v>
+        <v>3060565682.910468</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1008376755654243</v>
+        <v>0.09285036525182018</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04492304940419373</v>
+        <v>0.04536637272376007</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1694764991.837685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4839263833.548984</v>
+        <v>4831133943.205084</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1231626631544784</v>
+        <v>0.1020612790229303</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03672225370134421</v>
+        <v>0.03841532450939417</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2419631963.116117</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2470405810.782197</v>
+        <v>2365528705.216988</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1504590419134342</v>
+        <v>0.1303019916690297</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05009752183392896</v>
+        <v>0.04572775105472447</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1235202970.828522</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2732690662.64665</v>
+        <v>2658165217.539859</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09966467094817036</v>
+        <v>0.07892487266808543</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04258130227516359</v>
+        <v>0.04236120707182615</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1366345290.683491</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4549820196.267546</v>
+        <v>3570789295.544438</v>
       </c>
       <c r="F71" t="n">
-        <v>0.156596420623235</v>
+        <v>0.1519976021858464</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02295226360640227</v>
+        <v>0.03033394364340466</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2274910169.925756</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2057261528.790413</v>
+        <v>1469482894.540377</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09762441163020075</v>
+        <v>0.1016086651426291</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04714205018622176</v>
+        <v>0.03940768832026272</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1028630701.189739</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2611609199.040354</v>
+        <v>2662372723.89399</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07915013486491194</v>
+        <v>0.07875498962344958</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0484671425263993</v>
+        <v>0.04903464691405001</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1305804630.755972</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3596230896.376997</v>
+        <v>2928136297.229669</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1517640215502728</v>
+        <v>0.166162062802608</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03126510224871683</v>
+        <v>0.02650441094896351</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1798115461.769817</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1868273574.045941</v>
+        <v>1979225261.847408</v>
       </c>
       <c r="F75" t="n">
-        <v>0.124485018745176</v>
+        <v>0.1242029346086193</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02643972557758504</v>
+        <v>0.02934833805378919</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>934136763.2589943</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4710177876.29439</v>
+        <v>3834697354.650365</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1247137769093275</v>
+        <v>0.0947559099658163</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02585963290575165</v>
+        <v>0.025674544824911</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2355088952.366659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1730205038.891658</v>
+        <v>1797275795.075375</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1423407352014808</v>
+        <v>0.1679085994670326</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02705826394305801</v>
+        <v>0.01913434016468383</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>865102540.8302201</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4401228403.786283</v>
+        <v>4419914535.782018</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1199107181474684</v>
+        <v>0.1166281751179002</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05475769100305738</v>
+        <v>0.04099402333666911</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2200614138.616091</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1167617156.3829</v>
+        <v>1421257492.13315</v>
       </c>
       <c r="F79" t="n">
-        <v>0.172418291604532</v>
+        <v>0.1298821762571314</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0290660221755541</v>
+        <v>0.02490455487944099</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>583808554.0212733</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5234587677.050384</v>
+        <v>3409344365.215587</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08775287299734752</v>
+        <v>0.07032013564881029</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03597068142690934</v>
+        <v>0.03609850923325598</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2617293899.055335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5109355898.555507</v>
+        <v>4326612046.073366</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09540949351244095</v>
+        <v>0.08879638840635401</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02134309489432581</v>
+        <v>0.02562667816470742</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2554677953.434317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4371500465.118134</v>
+        <v>3614938506.70852</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1683705852640524</v>
+        <v>0.15138332816647</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02358118490006698</v>
+        <v>0.02891003273898436</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2185750251.30168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2378523158.114648</v>
+        <v>1750823921.839002</v>
       </c>
       <c r="F83" t="n">
-        <v>0.105939515649748</v>
+        <v>0.1493406943734806</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04093579184711685</v>
+        <v>0.03237350191944108</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1189261611.299395</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2027320863.022183</v>
+        <v>2386307154.308722</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09255497515957796</v>
+        <v>0.09564602626022539</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05012426252420767</v>
+        <v>0.03148608310651745</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1013660432.228551</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2386293439.037893</v>
+        <v>2487003326.075274</v>
       </c>
       <c r="F85" t="n">
-        <v>0.171905563664922</v>
+        <v>0.1409534427020136</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04301870149108727</v>
+        <v>0.04371890733938848</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1193146711.660864</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1958358454.948665</v>
+        <v>2284885462.300067</v>
       </c>
       <c r="F86" t="n">
-        <v>0.170470002716633</v>
+        <v>0.1718890149935818</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02004657592648093</v>
+        <v>0.02332969119283726</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>979179249.0444609</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1482761382.092758</v>
+        <v>1486580445.125654</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1878160961835756</v>
+        <v>0.1411612363188963</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02738432408577906</v>
+        <v>0.04302605279012332</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>741380818.8283052</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2811600641.952217</v>
+        <v>3279323971.130437</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1384813490122136</v>
+        <v>0.168838508190738</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03817608486247256</v>
+        <v>0.03616847298510534</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1405800332.51215</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2394393865.230463</v>
+        <v>2455902408.970891</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1405221594792887</v>
+        <v>0.1043287218701247</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02810377805948222</v>
+        <v>0.03991900648046087</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1197197014.856773</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1780758100.313154</v>
+        <v>1494436622.197887</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08362505023717601</v>
+        <v>0.09561229408628347</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03910733744890156</v>
+        <v>0.04161058176088457</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>890379079.966257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1897797623.966248</v>
+        <v>1717562320.053321</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1834463879125952</v>
+        <v>0.1577330475339851</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04037227566790222</v>
+        <v>0.05513557508894451</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>948898797.5244207</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2780750521.275903</v>
+        <v>2337976717.87469</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1055677807938657</v>
+        <v>0.1047209489528933</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0461728106273874</v>
+        <v>0.02897081451479674</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1390375265.418768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4340372910.457226</v>
+        <v>4087623542.644036</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09106305218503101</v>
+        <v>0.1007074332868656</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04159289173013274</v>
+        <v>0.04131025820067189</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2170186433.546895</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2020396409.477158</v>
+        <v>1702097314.387328</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1093681716365799</v>
+        <v>0.1091273579870457</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03781409003588678</v>
+        <v>0.03047775178389078</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1010198205.442045</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2073656723.459661</v>
+        <v>2160462715.296156</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09250370653947822</v>
+        <v>0.1157175171063623</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05150176719633051</v>
+        <v>0.0379739294064961</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1036828428.476684</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1926884901.333591</v>
+        <v>2313952412.270433</v>
       </c>
       <c r="F96" t="n">
-        <v>0.103370916126779</v>
+        <v>0.1293730312154897</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03292810511283317</v>
+        <v>0.04552065878254889</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>963442445.1277369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4788687419.451266</v>
+        <v>3361623908.96461</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1592524359282838</v>
+        <v>0.1330672393887262</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02514087974730631</v>
+        <v>0.02404401042886786</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2394343829.179876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3702226324.939692</v>
+        <v>3737223064.19387</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09599474510612076</v>
+        <v>0.0957843360721764</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02305914356147258</v>
+        <v>0.02687517269077563</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1851113194.545797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2772042436.754261</v>
+        <v>3419884916.571111</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1466004263700794</v>
+        <v>0.1142240343327798</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0241717817415454</v>
+        <v>0.02152827572174117</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1386021187.476411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3927360478.910245</v>
+        <v>3590266028.999692</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1294736821049629</v>
+        <v>0.1114266824058442</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01957627188379345</v>
+        <v>0.02199347686742136</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1963680304.039568</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3125833932.578981</v>
+        <v>3068757385.462049</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1955522916432804</v>
+        <v>0.1463279388687602</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05099588303511951</v>
+        <v>0.05203722275115438</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1562917071.677887</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_17.xlsx
+++ b/output/fit_clients/fit_round_17.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2295553719.770117</v>
+        <v>2389058654.203951</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08444004136294325</v>
+        <v>0.08923541463850009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04271952647384643</v>
+        <v>0.04486482896072429</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1867542513.942867</v>
+        <v>1985506477.317051</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1632389009508028</v>
+        <v>0.1172335799235513</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04717559281746817</v>
+        <v>0.0307184425879891</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4488035955.719072</v>
+        <v>4443145195.34486</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1040530045463098</v>
+        <v>0.1521863836773951</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03309925575556942</v>
+        <v>0.03718934624309532</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3919050661.133036</v>
+        <v>2718927076.702078</v>
       </c>
       <c r="F5" t="n">
-        <v>0.108095063881221</v>
+        <v>0.09116435379158051</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04426466467464756</v>
+        <v>0.04008998821092271</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2167564246.419798</v>
+        <v>2198313186.247496</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0994416133356557</v>
+        <v>0.1491748867532191</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04233913253255902</v>
+        <v>0.04150852685629336</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2367353769.779916</v>
+        <v>2217970689.318784</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08532936450485314</v>
+        <v>0.08868361097580081</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04486449598919746</v>
+        <v>0.03743122628572856</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3861026134.510366</v>
+        <v>3664688920.239652</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1822634187252867</v>
+        <v>0.2004126744430619</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02098758117254891</v>
+        <v>0.02141554627703893</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1641121888.115227</v>
+        <v>1481737319.104984</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625040010354054</v>
+        <v>0.1270662889305081</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02558796093152852</v>
+        <v>0.0289352513841832</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5431303811.630257</v>
+        <v>4066413198.321163</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2031546053265678</v>
+        <v>0.1711960265660389</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03358784686318336</v>
+        <v>0.0491012139785364</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2701926886.223547</v>
+        <v>4147844190.307766</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1349614187809225</v>
+        <v>0.15572670022094</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04003252062919933</v>
+        <v>0.047736799373382</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2298945922.171121</v>
+        <v>3028128256.906525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1939470100725923</v>
+        <v>0.160770065797768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05019389492769734</v>
+        <v>0.05335591500636735</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4542366747.845223</v>
+        <v>4648683747.374424</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08710510570895373</v>
+        <v>0.08296273382079138</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02704259649809568</v>
+        <v>0.03020551251033653</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2981996529.49084</v>
+        <v>3734796132.555466</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1148521516868521</v>
+        <v>0.1292424903475843</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03970580941897187</v>
+        <v>0.03459877255590697</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1390518611.42619</v>
+        <v>1689308006.462629</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07145065713215813</v>
+        <v>0.1070820002605587</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04788397027010648</v>
+        <v>0.04716104903692343</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2444184286.405962</v>
+        <v>2236234086.021108</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1000589891244918</v>
+        <v>0.09629807306072177</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04564575139087849</v>
+        <v>0.03929154345601855</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3714105314.497596</v>
+        <v>4244344031.579772</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1750378258661085</v>
+        <v>0.170145134098439</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04643382640027149</v>
+        <v>0.05098862138168968</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2695362261.025253</v>
+        <v>3628022293.970984</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1423028917574099</v>
+        <v>0.173093968060682</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02384170998100296</v>
+        <v>0.02797341613752156</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>961598217.6195248</v>
+        <v>950701770.1779325</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1890275125532981</v>
+        <v>0.1447813884689953</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02571422403434796</v>
+        <v>0.02001039954683111</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2415539932.565025</v>
+        <v>2110309465.029136</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1201536629263258</v>
+        <v>0.1486479522333122</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02137411636027685</v>
+        <v>0.02026317497933295</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1942020341.323041</v>
+        <v>2117372451.575682</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06357429013253404</v>
+        <v>0.08954199366539098</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02898067338290641</v>
+        <v>0.03673662567397944</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2931138650.072161</v>
+        <v>2737326590.98896</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1267049333831347</v>
+        <v>0.1345480291537989</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03691943754137178</v>
+        <v>0.03570522116495276</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1453038960.253314</v>
+        <v>1351996573.533074</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1494529598625884</v>
+        <v>0.1822958371153076</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0346912418306931</v>
+        <v>0.04644251054479663</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3095968683.731053</v>
+        <v>3137304456.294559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09434241848276614</v>
+        <v>0.1153118196625954</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03324039729521393</v>
+        <v>0.0250812059168512</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1170785481.679281</v>
+        <v>1291318694.864214</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08918374342958643</v>
+        <v>0.07544325690144223</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01870697618967004</v>
+        <v>0.02901821987785565</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1432905797.830647</v>
+        <v>1021076549.852546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09344700641745246</v>
+        <v>0.1042627570821503</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02790977894122736</v>
+        <v>0.03236460565654291</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4139980576.691404</v>
+        <v>4506929967.522243</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1317270180749215</v>
+        <v>0.1397508175598079</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02342808385444244</v>
+        <v>0.02101615829266208</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3802630838.884518</v>
+        <v>3285794415.707214</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1248817308880409</v>
+        <v>0.1467654977901939</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04504371652550559</v>
+        <v>0.0316958155865141</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5666528420.453969</v>
+        <v>4228526784.602429</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1175137204343505</v>
+        <v>0.1076967027329756</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0398865480498919</v>
+        <v>0.03769939663943081</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2306462073.065423</v>
+        <v>2120016939.494085</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0885541694474988</v>
+        <v>0.1101393315164498</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03160656089224102</v>
+        <v>0.03231034283607925</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>951339114.3182218</v>
+        <v>959348153.578712</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09772130976099996</v>
+        <v>0.1003458453997025</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03491040115697754</v>
+        <v>0.05231874464862194</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1415255255.442753</v>
+        <v>1194534531.463216</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07864796992957875</v>
+        <v>0.0854774538670154</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02826467927933877</v>
+        <v>0.02489659190440249</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2322572631.996864</v>
+        <v>2992437195.471592</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1314687481285432</v>
+        <v>0.1444879441787166</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05721902716227569</v>
+        <v>0.03771129442266637</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1034150665.496715</v>
+        <v>1312924168.154269</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1152757282115617</v>
+        <v>0.07932826250967943</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02146323071278547</v>
+        <v>0.01828546634234504</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1225139856.213263</v>
+        <v>856671706.9301009</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1006458131944335</v>
+        <v>0.07318375713704388</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02896733588741112</v>
+        <v>0.02938323700421756</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2360340674.132663</v>
+        <v>2654568257.460544</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1752832779167725</v>
+        <v>0.1786941578280043</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02720417109773696</v>
+        <v>0.02404032831541127</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2014807635.852069</v>
+        <v>2067213166.597039</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08919377258775979</v>
+        <v>0.1094656009298164</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03965564690043723</v>
+        <v>0.04128013814857701</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2079299459.816032</v>
+        <v>1806639262.310525</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1188612358997485</v>
+        <v>0.08793138026786192</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0271789886362784</v>
+        <v>0.03613299000646128</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2003820134.660694</v>
+        <v>1656419446.927311</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1657798086128235</v>
+        <v>0.1428094556796381</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03171275135224393</v>
+        <v>0.02890367187292559</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1456971107.029791</v>
+        <v>1628668784.434964</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1550917392633349</v>
+        <v>0.120109433559374</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0530571418063672</v>
+        <v>0.04012301954651916</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2904467904.018942</v>
+        <v>2813238399.917355</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1517207724812315</v>
+        <v>0.1488346797304733</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04452122874739838</v>
+        <v>0.04386241590548787</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3164883695.625287</v>
+        <v>4240628870.464482</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1130512145461606</v>
+        <v>0.1262029137507371</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04304460149823613</v>
+        <v>0.03446724468469812</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2804142671.445583</v>
+        <v>2516990451.238488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1415132728102639</v>
+        <v>0.1480739051257761</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01821611914005569</v>
+        <v>0.0192416462944274</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2257876317.846439</v>
+        <v>2228484562.064479</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0889941415723393</v>
+        <v>0.08408708067658595</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02587626866940631</v>
+        <v>0.03410788884329226</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2110985115.622014</v>
+        <v>2239931480.710999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1951871473007369</v>
+        <v>0.1946022695510589</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04067344930504947</v>
+        <v>0.04201618905253269</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4120458835.977724</v>
+        <v>4690227753.278316</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1384668376196683</v>
+        <v>0.1726715919569306</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04983101647990093</v>
+        <v>0.05588409736607369</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4140090570.562339</v>
+        <v>3810630550.014929</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1842049607966443</v>
+        <v>0.1673268192945287</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05669380308119793</v>
+        <v>0.04326623394554257</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4438633519.332713</v>
+        <v>4337715044.716468</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1087537111531464</v>
+        <v>0.07483476662635444</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02706629403925627</v>
+        <v>0.03003343208720597</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1197184138.918983</v>
+        <v>1677216526.46489</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1770415307228124</v>
+        <v>0.1670901266161827</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03123735088548742</v>
+        <v>0.03727369062177375</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3809693424.132962</v>
+        <v>4188033344.382868</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1520853338266631</v>
+        <v>0.1599248214564298</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04226140204144826</v>
+        <v>0.0390470407568031</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1334855972.116302</v>
+        <v>1248068351.875201</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1517405631060356</v>
+        <v>0.1255001197964295</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04318024782138924</v>
+        <v>0.03999651722246592</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3924003528.704745</v>
+        <v>4446451816.817204</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1244770843665077</v>
+        <v>0.09742819894925589</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0487445166496136</v>
+        <v>0.04691119587578924</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2575494843.189753</v>
+        <v>3480174385.374282</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1652790444046614</v>
+        <v>0.1363440070405131</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02194722583718593</v>
+        <v>0.02682456392340581</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3051930922.034035</v>
+        <v>3159406029.283382</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1289459080372339</v>
+        <v>0.132456049533608</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04286661030893049</v>
+        <v>0.04685609120186906</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4100210189.844202</v>
+        <v>3765530652.582969</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1863567951402551</v>
+        <v>0.1721863256645113</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0267324706868893</v>
+        <v>0.0275918897612748</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1824247618.003118</v>
+        <v>1243518774.140025</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1245220471314751</v>
+        <v>0.1270677498017272</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05054624744218251</v>
+        <v>0.03709724251107598</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3220378055.047946</v>
+        <v>3046229003.721728</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1492575618070898</v>
+        <v>0.1275290355709753</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01884329197495473</v>
+        <v>0.01668271749580748</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1608725946.56254</v>
+        <v>1181822547.516701</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1395420003412971</v>
+        <v>0.2026931912528414</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03054627175982962</v>
+        <v>0.03834777053435235</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3998768762.041399</v>
+        <v>3326687880.535174</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1274278393682775</v>
+        <v>0.09324219463163294</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03790651973045384</v>
+        <v>0.04044000861142207</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2781910453.091067</v>
+        <v>2434771387.379185</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1743116065806493</v>
+        <v>0.1869321596834208</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02081961965408415</v>
+        <v>0.02368937283264603</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2931986215.632078</v>
+        <v>2290299056.57017</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1144715836272012</v>
+        <v>0.1483874085020591</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02370880789275638</v>
+        <v>0.02988244200326737</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1406388454.892285</v>
+        <v>2050475091.240305</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1255450309739095</v>
+        <v>0.1707069527455744</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03169324437355035</v>
+        <v>0.04917437056699357</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3877650835.729866</v>
+        <v>5571041291.083179</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0982070782437231</v>
+        <v>0.0899576252244788</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03584692480006659</v>
+        <v>0.02965056703425269</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5453283083.040013</v>
+        <v>4903073138.792524</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1518257744944815</v>
+        <v>0.1363439304339281</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03045110771756163</v>
+        <v>0.0235318863081618</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3668511362.535956</v>
+        <v>4897035820.119113</v>
       </c>
       <c r="F65" t="n">
-        <v>0.162772130664343</v>
+        <v>0.1498343259333082</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03034304844951516</v>
+        <v>0.02985865018843622</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4276020143.416038</v>
+        <v>4055027548.866017</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1537978075719032</v>
+        <v>0.1610254911375079</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04593751036606189</v>
+        <v>0.04990300345645279</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3060565682.910468</v>
+        <v>3200247928.738675</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09285036525182018</v>
+        <v>0.06634775724624621</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04536637272376007</v>
+        <v>0.03611782908039495</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4831133943.205084</v>
+        <v>4665266571.406267</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1020612790229303</v>
+        <v>0.1561375320978609</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03841532450939417</v>
+        <v>0.04543073333881487</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2365528705.216988</v>
+        <v>1763689662.714708</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1303019916690297</v>
+        <v>0.1478213367112227</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04572775105472447</v>
+        <v>0.05612261906385094</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2658165217.539859</v>
+        <v>3345915213.112679</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07892487266808543</v>
+        <v>0.09768265009105671</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04236120707182615</v>
+        <v>0.0430046721092025</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3570789295.544438</v>
+        <v>5160070801.485034</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1519976021858464</v>
+        <v>0.1225201143173058</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03033394364340466</v>
+        <v>0.02102273807247057</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1469482894.540377</v>
+        <v>1407482078.584973</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1016086651426291</v>
+        <v>0.07781928395176542</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03940768832026272</v>
+        <v>0.04542688832151931</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2662372723.89399</v>
+        <v>2433756376.946387</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07875498962344958</v>
+        <v>0.08033715691266015</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04903464691405001</v>
+        <v>0.03690794846343164</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2928136297.229669</v>
+        <v>2615460355.295062</v>
       </c>
       <c r="F74" t="n">
-        <v>0.166162062802608</v>
+        <v>0.159887625886707</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02650441094896351</v>
+        <v>0.0236988970821521</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1979225261.847408</v>
+        <v>2341044952.502047</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1242029346086193</v>
+        <v>0.165560376649602</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02934833805378919</v>
+        <v>0.02791105289100234</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3834697354.650365</v>
+        <v>3834790005.289578</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0947559099658163</v>
+        <v>0.1102634028202116</v>
       </c>
       <c r="G76" t="n">
-        <v>0.025674544824911</v>
+        <v>0.02376726615779751</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1797275795.075375</v>
+        <v>1435849243.039131</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1679085994670326</v>
+        <v>0.1872126897210198</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01913434016468383</v>
+        <v>0.02904514460490549</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4419914535.782018</v>
+        <v>4541231947.564055</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1166281751179002</v>
+        <v>0.1338575300128784</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04099402333666911</v>
+        <v>0.05562080686438844</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1421257492.13315</v>
+        <v>1664211680.046987</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1298821762571314</v>
+        <v>0.1119998831910032</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02490455487944099</v>
+        <v>0.02460111821327589</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3409344365.215587</v>
+        <v>5264360645.473418</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07032013564881029</v>
+        <v>0.09515792528278992</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03609850923325598</v>
+        <v>0.02732814731181447</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4326612046.073366</v>
+        <v>3930844977.707813</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08879638840635401</v>
+        <v>0.08873220730184432</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02562667816470742</v>
+        <v>0.02216206601981513</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3614938506.70852</v>
+        <v>5393686568.554402</v>
       </c>
       <c r="F82" t="n">
-        <v>0.15138332816647</v>
+        <v>0.1636723124445634</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02891003273898436</v>
+        <v>0.02900552703459165</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1750823921.839002</v>
+        <v>2186139174.621887</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1493406943734806</v>
+        <v>0.1197755128290496</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03237350191944108</v>
+        <v>0.04077620370518936</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2386307154.308722</v>
+        <v>1688077803.565821</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09564602626022539</v>
+        <v>0.110664584795812</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03148608310651745</v>
+        <v>0.04159407886397604</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2487003326.075274</v>
+        <v>3282393277.095773</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1409534427020136</v>
+        <v>0.1637937148503246</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04371890733938848</v>
+        <v>0.05440843456755633</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2284885462.300067</v>
+        <v>2620984206.974734</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1718890149935818</v>
+        <v>0.1597281449840657</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02332969119283726</v>
+        <v>0.01884785079068103</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1486580445.125654</v>
+        <v>1128748178.343905</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1411612363188963</v>
+        <v>0.1309579868517977</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04302605279012332</v>
+        <v>0.0293996589740564</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3279323971.130437</v>
+        <v>3094318141.319932</v>
       </c>
       <c r="F88" t="n">
-        <v>0.168838508190738</v>
+        <v>0.1402081779050097</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03616847298510534</v>
+        <v>0.02828500688476981</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2455902408.970891</v>
+        <v>2832701422.60933</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1043287218701247</v>
+        <v>0.1336388235244672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03991900648046087</v>
+        <v>0.04180023419105074</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1494436622.197887</v>
+        <v>1799407874.029982</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09561229408628347</v>
+        <v>0.1061664155462327</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04161058176088457</v>
+        <v>0.04494872865588397</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1717562320.053321</v>
+        <v>1899626057.343194</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1577330475339851</v>
+        <v>0.1323849934491601</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05513557508894451</v>
+        <v>0.044826559856241</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2337976717.87469</v>
+        <v>2985078334.042487</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1047209489528933</v>
+        <v>0.08572124025994411</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02897081451479674</v>
+        <v>0.03248789027467418</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4087623542.644036</v>
+        <v>3492066168.74455</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1007074332868656</v>
+        <v>0.1378911400656158</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04131025820067189</v>
+        <v>0.04875395942111604</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1702097314.387328</v>
+        <v>2215577785.648893</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1091273579870457</v>
+        <v>0.1390280340566095</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03047775178389078</v>
+        <v>0.03815389565304587</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2160462715.296156</v>
+        <v>2368013629.165901</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1157175171063623</v>
+        <v>0.1057282560423704</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0379739294064961</v>
+        <v>0.04978659705808639</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2313952412.270433</v>
+        <v>2342959967.50942</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1293730312154897</v>
+        <v>0.1099757972417456</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04552065878254889</v>
+        <v>0.03071678822732651</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3361623908.96461</v>
+        <v>4829662691.931071</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1330672393887262</v>
+        <v>0.1691505542011097</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02404401042886786</v>
+        <v>0.02667436388534774</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3737223064.19387</v>
+        <v>2699106176.794452</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0957843360721764</v>
+        <v>0.09493461690771167</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02687517269077563</v>
+        <v>0.02961913203310232</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3419884916.571111</v>
+        <v>2442739297.807731</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1142240343327798</v>
+        <v>0.1121598190812589</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02152827572174117</v>
+        <v>0.03288527429052033</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3590266028.999692</v>
+        <v>3954816158.23288</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1114266824058442</v>
+        <v>0.158619625434893</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02199347686742136</v>
+        <v>0.01835548218471528</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3068757385.462049</v>
+        <v>3310710050.421651</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1463279388687602</v>
+        <v>0.2039379215529521</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05203722275115438</v>
+        <v>0.04117904070737682</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_17.xlsx
+++ b/output/fit_clients/fit_round_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2389058654.203951</v>
+        <v>1956717475.005936</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08923541463850009</v>
+        <v>0.08860048254850147</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04486482896072429</v>
+        <v>0.03063982525192892</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1985506477.317051</v>
+        <v>2530239481.895489</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1172335799235513</v>
+        <v>0.1435109070763457</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0307184425879891</v>
+        <v>0.04004417769446308</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4443145195.34486</v>
+        <v>3590370328.385384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1521863836773951</v>
+        <v>0.104904681632143</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03718934624309532</v>
+        <v>0.02953123217309812</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2718927076.702078</v>
+        <v>2766866965.320215</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09116435379158051</v>
+        <v>0.1082550497117557</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04008998821092271</v>
+        <v>0.04055556066127046</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2198313186.247496</v>
+        <v>2237282331.111811</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1491748867532191</v>
+        <v>0.1089022114429102</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04150852685629336</v>
+        <v>0.05597500360026942</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2217970689.318784</v>
+        <v>2633549570.607199</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08868361097580081</v>
+        <v>0.09050032515774177</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03743122628572856</v>
+        <v>0.04760660926213769</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3664688920.239652</v>
+        <v>3593444819.308873</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2004126744430619</v>
+        <v>0.1908788846711502</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02141554627703893</v>
+        <v>0.0293602905170874</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1481737319.104984</v>
+        <v>1511261240.489081</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1270662889305081</v>
+        <v>0.1296310700427166</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0289352513841832</v>
+        <v>0.02359040333460037</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4066413198.321163</v>
+        <v>4819355767.293477</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1711960265660389</v>
+        <v>0.1977185273771477</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0491012139785364</v>
+        <v>0.03992038987095022</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.0397684255334</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +818,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4147844190.307766</v>
+        <v>4213382109.21305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.15572670022094</v>
+        <v>0.1441343805950515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.047736799373382</v>
+        <v>0.03340534855868521</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17</v>
+      </c>
+      <c r="K11" t="n">
+        <v>230.7429162912687</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3028128256.906525</v>
+        <v>2108216506.353196</v>
       </c>
       <c r="F12" t="n">
-        <v>0.160770065797768</v>
+        <v>0.1561549051010461</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05335591500636735</v>
+        <v>0.05264855701918293</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4648683747.374424</v>
+        <v>3330012597.033157</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08296273382079138</v>
+        <v>0.07603137118515278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03020551251033653</v>
+        <v>0.01912029338499031</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>132.5085903413304</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3734796132.555466</v>
+        <v>3706591881.890481</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1292424903475843</v>
+        <v>0.1226021890349428</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03459877255590697</v>
+        <v>0.03326847511118861</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1689308006.462629</v>
+        <v>1296997727.210814</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070820002605587</v>
+        <v>0.07620975154629886</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04716104903692343</v>
+        <v>0.04112037849175911</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2236234086.021108</v>
+        <v>2462344202.996109</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09629807306072177</v>
+        <v>0.1090612762352036</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03929154345601855</v>
+        <v>0.04491294603670932</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4244344031.579772</v>
+        <v>4825558773.021449</v>
       </c>
       <c r="F17" t="n">
-        <v>0.170145134098439</v>
+        <v>0.1646983389972235</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05098862138168968</v>
+        <v>0.05184255139008907</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16</v>
+      </c>
+      <c r="K17" t="n">
+        <v>197.8722887937774</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3628022293.970984</v>
+        <v>2852989852.658638</v>
       </c>
       <c r="F18" t="n">
-        <v>0.173093968060682</v>
+        <v>0.1648796989241005</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02797341613752156</v>
+        <v>0.03423788310656379</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>950701770.1779325</v>
+        <v>1040638419.191341</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1447813884689953</v>
+        <v>0.1876076330820949</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02001039954683111</v>
+        <v>0.02602209709972492</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2110309465.029136</v>
+        <v>2810984260.008325</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1486479522333122</v>
+        <v>0.133458359872124</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02026317497933295</v>
+        <v>0.02150708111271515</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2117372451.575682</v>
+        <v>2011067628.090397</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08954199366539098</v>
+        <v>0.0810394222230017</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03673662567397944</v>
+        <v>0.0436603302544911</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2737326590.98896</v>
+        <v>3164398143.804752</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1345480291537989</v>
+        <v>0.1165040358099232</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03570522116495276</v>
+        <v>0.0571432605911744</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="n">
+        <v>106.0486126963955</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1351996573.533074</v>
+        <v>1354986571.388169</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1822958371153076</v>
+        <v>0.1596212240407834</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04644251054479663</v>
+        <v>0.04351871178603119</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3137304456.294559</v>
+        <v>3916136529.751136</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1153118196625954</v>
+        <v>0.1262081566121801</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0250812059168512</v>
+        <v>0.02959966484198213</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1291318694.864214</v>
+        <v>1425312132.58175</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07544325690144223</v>
+        <v>0.1179786673736916</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02901821987785565</v>
+        <v>0.02208514962774044</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1021076549.852546</v>
+        <v>1171363242.80193</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1042627570821503</v>
+        <v>0.08732263594608529</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03236460565654291</v>
+        <v>0.02709899552201181</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4506929967.522243</v>
+        <v>3567232246.038806</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1397508175598079</v>
+        <v>0.1521365881703204</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02101615829266208</v>
+        <v>0.01867679680768986</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>17</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3285794415.707214</v>
+        <v>3197446753.592797</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1467654977901939</v>
+        <v>0.1207466026615486</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0316958155865141</v>
+        <v>0.04037129299648147</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4228526784.602429</v>
+        <v>5162890137.07846</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1076967027329756</v>
+        <v>0.1050659874267317</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03769939663943081</v>
+        <v>0.02888887795045276</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>16</v>
+      </c>
+      <c r="J29" t="n">
+        <v>17</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9519200365739</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2120016939.494085</v>
+        <v>1787227509.183492</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1101393315164498</v>
+        <v>0.1083124992110504</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03231034283607925</v>
+        <v>0.03541010514869267</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>959348153.578712</v>
+        <v>1314530960.551708</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1003458453997025</v>
+        <v>0.09911867114513195</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05231874464862194</v>
+        <v>0.0397606662593681</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1194534531.463216</v>
+        <v>1689683505.016017</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0854774538670154</v>
+        <v>0.1074674018729349</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02489659190440249</v>
+        <v>0.02753812488843327</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2992437195.471592</v>
+        <v>2663107279.310419</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1444879441787166</v>
+        <v>0.1704242949680926</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03771129442266637</v>
+        <v>0.03747015049264915</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1312924168.154269</v>
+        <v>1352240640.226805</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07932826250967943</v>
+        <v>0.08510601754191624</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01828546634234504</v>
+        <v>0.02217923356061041</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>856671706.9301009</v>
+        <v>1356219812.619814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07318375713704388</v>
+        <v>0.1000553740317358</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02938323700421756</v>
+        <v>0.03905643300999963</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2654568257.460544</v>
+        <v>2540038736.221784</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1786941578280043</v>
+        <v>0.1199136720526502</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02404032831541127</v>
+        <v>0.02806441867369388</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2067213166.597039</v>
+        <v>1936421285.631046</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1094656009298164</v>
+        <v>0.1077439454294307</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04128013814857701</v>
+        <v>0.04181516434902171</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1806639262.310525</v>
+        <v>1696073880.70865</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08793138026786192</v>
+        <v>0.08990861158477352</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03613299000646128</v>
+        <v>0.03799112922639545</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1656419446.927311</v>
+        <v>2163149252.773378</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1428094556796381</v>
+        <v>0.1193835064080191</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02890367187292559</v>
+        <v>0.03156112738902404</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1628668784.434964</v>
+        <v>1233943576.519303</v>
       </c>
       <c r="F40" t="n">
-        <v>0.120109433559374</v>
+        <v>0.1157346827750595</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04012301954651916</v>
+        <v>0.03788630757683405</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2813238399.917355</v>
+        <v>1999467334.884929</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1488346797304733</v>
+        <v>0.121559605678375</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04386241590548787</v>
+        <v>0.04738061126665591</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4240628870.464482</v>
+        <v>3382123684.122889</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1262029137507371</v>
+        <v>0.09341128063217959</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03446724468469812</v>
+        <v>0.03779354275647999</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2516990451.238488</v>
+        <v>2593569370.960367</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1480739051257761</v>
+        <v>0.1909799661874489</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0192416462944274</v>
+        <v>0.0165537418669446</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2228484562.064479</v>
+        <v>2299265470.787585</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08408708067658595</v>
+        <v>0.08102950437788628</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03410788884329226</v>
+        <v>0.02466044934312418</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2239931480.710999</v>
+        <v>1541320777.833782</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1946022695510589</v>
+        <v>0.158575261087374</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04201618905253269</v>
+        <v>0.04133598550494733</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4690227753.278316</v>
+        <v>4359676594.030426</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1726715919569306</v>
+        <v>0.1474713641099274</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05588409736607369</v>
+        <v>0.04949417461478074</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>16</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.1725455677905</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3810630550.014929</v>
+        <v>4264735201.849549</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1673268192945287</v>
+        <v>0.1687989611595205</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04326623394554257</v>
+        <v>0.04632300476849135</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>16</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.6931872191139</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4337715044.716468</v>
+        <v>2903795894.60318</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07483476662635444</v>
+        <v>0.09812313646693362</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03003343208720597</v>
+        <v>0.03460603245575709</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1677216526.46489</v>
+        <v>1459212949.692164</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1670901266161827</v>
+        <v>0.1730706244239191</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03727369062177375</v>
+        <v>0.03946638969453926</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4188033344.382868</v>
+        <v>3662256466.427035</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1599248214564298</v>
+        <v>0.1695459168148828</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0390470407568031</v>
+        <v>0.0327738310979235</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>160.9903143100595</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1248068351.875201</v>
+        <v>1042327980.211834</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1255001197964295</v>
+        <v>0.1810052674008418</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03999651722246592</v>
+        <v>0.04067037279036603</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4446451816.817204</v>
+        <v>4432558319.16578</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09742819894925589</v>
+        <v>0.1003572644911507</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04691119587578924</v>
+        <v>0.04362940915189487</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>17</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3480174385.374282</v>
+        <v>3405853392.591759</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1363440070405131</v>
+        <v>0.1970181836334725</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02682456392340581</v>
+        <v>0.03411983066665386</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3159406029.283382</v>
+        <v>3036816741.789847</v>
       </c>
       <c r="F54" t="n">
-        <v>0.132456049533608</v>
+        <v>0.1645768631718791</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04685609120186906</v>
+        <v>0.04875694178785689</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>16</v>
+      </c>
+      <c r="K54" t="n">
+        <v>109.2854140421631</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3765530652.582969</v>
+        <v>4555287876.000399</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1721863256645113</v>
+        <v>0.185539340509576</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0275918897612748</v>
+        <v>0.02075957267225452</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>17</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1243518774.140025</v>
+        <v>1325690749.257059</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1270677498017272</v>
+        <v>0.1650147947055804</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03709724251107598</v>
+        <v>0.03691734487830432</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3046229003.721728</v>
+        <v>2797013401.210253</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1275290355709753</v>
+        <v>0.173587774473302</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01668271749580748</v>
+        <v>0.01970362654079111</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>15</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1181822547.516701</v>
+        <v>1668077708.767305</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2026931912528414</v>
+        <v>0.1776754352596099</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03834777053435235</v>
+        <v>0.03871056267230001</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3326687880.535174</v>
+        <v>5260517020.836178</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09324219463163294</v>
+        <v>0.1267798875511854</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04044000861142207</v>
+        <v>0.04606116546872681</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>16</v>
+      </c>
+      <c r="K59" t="n">
+        <v>187.0332484729269</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2434771387.379185</v>
+        <v>3347915342.725874</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1869321596834208</v>
+        <v>0.1351514307464715</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02368937283264603</v>
+        <v>0.02270664116200695</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2290299056.57017</v>
+        <v>2699648568.403613</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1483874085020591</v>
+        <v>0.150734409992841</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02988244200326737</v>
+        <v>0.02674390082534582</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2050475091.240305</v>
+        <v>1535281526.351564</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1707069527455744</v>
+        <v>0.1412759347255824</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04917437056699357</v>
+        <v>0.04883177181779424</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5571041291.083179</v>
+        <v>3396554410.688866</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0899576252244788</v>
+        <v>0.09654155633155202</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02965056703425269</v>
+        <v>0.04679516419134478</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>15</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4903073138.792524</v>
+        <v>4015715116.588679</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1363439304339281</v>
+        <v>0.1366163406335917</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0235318863081618</v>
+        <v>0.03421976396777361</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>17</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4897035820.119113</v>
+        <v>5917118087.928553</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1498343259333082</v>
+        <v>0.1363883958677144</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02985865018843622</v>
+        <v>0.02151783999105309</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>14</v>
+      </c>
+      <c r="J65" t="n">
+        <v>17</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.5119555444585</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4055027548.866017</v>
+        <v>5430710458.910869</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1610254911375079</v>
+        <v>0.1412186837767938</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04990300345645279</v>
+        <v>0.03244890214982474</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>17</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3200247928.738675</v>
+        <v>2509755684.215217</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06634775724624621</v>
+        <v>0.08709713468830389</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03611782908039495</v>
+        <v>0.03441165842090481</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4665266571.406267</v>
+        <v>5467715305.399156</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1561375320978609</v>
+        <v>0.1535780166743494</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04543073333881487</v>
+        <v>0.04777735623426367</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>17</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1763689662.714708</v>
+        <v>1579741780.750189</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1478213367112227</v>
+        <v>0.1288731931438993</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05612261906385094</v>
+        <v>0.03742201622401149</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3345915213.112679</v>
+        <v>3472388377.88481</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09768265009105671</v>
+        <v>0.07103944814506159</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0430046721092025</v>
+        <v>0.04772156519944291</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5160070801.485034</v>
+        <v>4517950567.451923</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1225201143173058</v>
+        <v>0.1303507446353413</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02102273807247057</v>
+        <v>0.0258162313463629</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>13</v>
+      </c>
+      <c r="J71" t="n">
+        <v>17</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.5336845419989</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1407482078.584973</v>
+        <v>2180264429.890743</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07781928395176542</v>
+        <v>0.106797026349835</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04542688832151931</v>
+        <v>0.03321187724688422</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2433756376.946387</v>
+        <v>3247749218.511369</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08033715691266015</v>
+        <v>0.1127237993730191</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03690794846343164</v>
+        <v>0.04468778992157154</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3047,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2615460355.295062</v>
+        <v>2775357567.988064</v>
       </c>
       <c r="F74" t="n">
-        <v>0.159887625886707</v>
+        <v>0.1124620245967432</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0236988970821521</v>
+        <v>0.03200340856759008</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2341044952.502047</v>
+        <v>1700511304.21389</v>
       </c>
       <c r="F75" t="n">
-        <v>0.165560376649602</v>
+        <v>0.1637771761532578</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02791105289100234</v>
+        <v>0.02694996742138744</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3117,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3834790005.289578</v>
+        <v>3567037906.180734</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1102634028202116</v>
+        <v>0.09102985749173709</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02376726615779751</v>
+        <v>0.03290225484626852</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>17</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3152,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1435849243.039131</v>
+        <v>1499150638.836426</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1872126897210198</v>
+        <v>0.1673983324623432</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02904514460490549</v>
+        <v>0.02362622559331416</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4541231947.564055</v>
+        <v>3113571217.361929</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1338575300128784</v>
+        <v>0.1042947171641596</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05562080686438844</v>
+        <v>0.05210757877340585</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>16</v>
+      </c>
+      <c r="K78" t="n">
+        <v>116.8024263582407</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1664211680.046987</v>
+        <v>1390662985.804919</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1119998831910032</v>
+        <v>0.1617382622621721</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02460111821327589</v>
+        <v>0.02565788100557282</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5264360645.473418</v>
+        <v>5234259401.611909</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09515792528278992</v>
+        <v>0.09790682166286629</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02732814731181447</v>
+        <v>0.03496579873739188</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>16</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.6543242564281</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3930844977.707813</v>
+        <v>4185591404.068376</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08873220730184432</v>
+        <v>0.1051832116574345</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02216206601981513</v>
+        <v>0.02096061206591414</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>16</v>
+      </c>
+      <c r="K81" t="n">
+        <v>168.7397278550155</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5393686568.554402</v>
+        <v>4995433312.116289</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1636723124445634</v>
+        <v>0.1690485136963166</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02900552703459165</v>
+        <v>0.02506645407147828</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>16</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.3441961143508</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2186139174.621887</v>
+        <v>1686490067.35939</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1197755128290496</v>
+        <v>0.1148349732331628</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04077620370518936</v>
+        <v>0.04337496987042708</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1688077803.565821</v>
+        <v>2400039654.180678</v>
       </c>
       <c r="F84" t="n">
-        <v>0.110664584795812</v>
+        <v>0.08883165878799922</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04159407886397604</v>
+        <v>0.05024256886482727</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3282393277.095773</v>
+        <v>3629374320.1653</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1637937148503246</v>
+        <v>0.125322547831634</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05440843456755633</v>
+        <v>0.03971863947639026</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2620984206.974734</v>
+        <v>2581035143.411622</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1597281449840657</v>
+        <v>0.1389713811573795</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01884785079068103</v>
+        <v>0.02251667693714496</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1128748178.343905</v>
+        <v>1243722203.716077</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1309579868517977</v>
+        <v>0.1568518273918086</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0293996589740564</v>
+        <v>0.04223622906944038</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3094318141.319932</v>
+        <v>2813065994.190119</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1402081779050097</v>
+        <v>0.1169399668720981</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02828500688476981</v>
+        <v>0.02807814280433475</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2832701422.60933</v>
+        <v>3461848156.523538</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1336388235244672</v>
+        <v>0.1022083843770777</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04180023419105074</v>
+        <v>0.04163851415023392</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1799407874.029982</v>
+        <v>1659310996.783836</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1061664155462327</v>
+        <v>0.1037064287997963</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04494872865588397</v>
+        <v>0.052522011522512</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1899626057.343194</v>
+        <v>1602005093.023073</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1323849934491601</v>
+        <v>0.1617219590800999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.044826559856241</v>
+        <v>0.05145327563828064</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2985078334.042487</v>
+        <v>2648692735.28837</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08572124025994411</v>
+        <v>0.1062030777898609</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03248789027467418</v>
+        <v>0.04078857862371959</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3492066168.74455</v>
+        <v>3086434036.889984</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1378911400656158</v>
+        <v>0.1402083600642258</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04875395942111604</v>
+        <v>0.05111661230480197</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>16</v>
+      </c>
+      <c r="K93" t="n">
+        <v>106.4447514834822</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2215577785.648893</v>
+        <v>1625677625.357096</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1390280340566095</v>
+        <v>0.118161198228166</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03815389565304587</v>
+        <v>0.04321453914416405</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2368013629.165901</v>
+        <v>3164936063.132835</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1057282560423704</v>
+        <v>0.1266573441308919</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04978659705808639</v>
+        <v>0.05036393488376889</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2342959967.50942</v>
+        <v>1827471550.104438</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1099757972417456</v>
+        <v>0.09133928354451276</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03071678822732651</v>
+        <v>0.03636198962097993</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4829662691.931071</v>
+        <v>3296767896.930589</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1691505542011097</v>
+        <v>0.1621506910512105</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02667436388534774</v>
+        <v>0.01833452610649073</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>16</v>
+      </c>
+      <c r="K97" t="n">
+        <v>128.2810662855765</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2699106176.794452</v>
+        <v>3045389812.999775</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09493461690771167</v>
+        <v>0.09471705046695304</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02961913203310232</v>
+        <v>0.02390529174542238</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2442739297.807731</v>
+        <v>2106377112.199291</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1121598190812589</v>
+        <v>0.09892786648561032</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03288527429052033</v>
+        <v>0.02471416117233459</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3954816158.23288</v>
+        <v>3332693689.258919</v>
       </c>
       <c r="F100" t="n">
-        <v>0.158619625434893</v>
+        <v>0.1507155022813313</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01835548218471528</v>
+        <v>0.01877902485633566</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>16</v>
+      </c>
+      <c r="K100" t="n">
+        <v>125.1202757618574</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3310710050.421651</v>
+        <v>2205179627.757161</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2039379215529521</v>
+        <v>0.1707361981959178</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04117904070737682</v>
+        <v>0.05101373437155906</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
